--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2008.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2008.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.004*"foreign" + 0.004*"exchange" + 0.003*"control" + 0.003*"currency" + 0.002*"transaction" + 0.002*"abroad" + 0.002*"payment" + 0.002*"nonresident" + 0.002*"bank" + 0.002*"requirement"</t>
-  </si>
-  <si>
-    <t>0.003*"foreign" + 0.002*"exchange" + 0.002*"account" + 0.002*"bank" + 0.001*"currency" + 0.001*"import" + 0.001*"may" + 0.001*"fund" + 0.001*"abroad" + 0.001*"yes"</t>
-  </si>
-  <si>
-    <t>0.028*"foreign" + 0.027*"exchange" + 0.015*"currency" + 0.012*"resident" + 0.012*"payment" + 0.012*"control" + 0.012*"account" + 0.012*"may" + 0.011*"bank" + 0.010*"fund"</t>
-  </si>
-  <si>
-    <t>0.021*"foreign" + 0.021*"exchange" + 0.014*"currency" + 0.013*"bank" + 0.012*"account" + 0.012*"import" + 0.012*"may" + 0.011*"investment" + 0.010*"security" + 0.010*"transaction"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.001*"bank" + 0.001*"foreign" + 0.001*"transaction" + 0.001*"currency" + 0.001*"account" + 0.001*"security" + 0.001*"import" + 0.001*"investment" + 0.001*"control"</t>
+    <t>0.051*"exchange" + 0.036*"currency" + 0.035*"foreign" + 0.031*"payment" + 0.030*"legal" + 0.029*"requirement" + 0.027*"import" + 0.025*"instrument" + 0.024*"reference" + 0.022*"account"</t>
+  </si>
+  <si>
+    <t>0.059*"foreign" + 0.037*"bank" + 0.036*"may" + 0.029*"yes" + 0.029*"exchange" + 0.027*"account" + 0.023*"currency" + 0.017*"nonresident" + 0.017*"resident" + 0.013*"abroad"</t>
+  </si>
+  <si>
+    <t>0.047*"fund" + 0.043*"international" + 0.036*"monetary" + 0.022*"approval" + 0.020*"law" + 0.020*"republic" + 0.019*"require" + 0.016*"subject" + 0.014*"country" + 0.014*"rate"</t>
+  </si>
+  <si>
+    <t>0.051*"control" + 0.048*"security" + 0.038*"nonresident" + 0.037*"resident" + 0.037*"capital" + 0.037*"issue" + 0.035*"investment" + 0.033*"transaction" + 0.031*"purchase" + 0.027*"abroad"</t>
+  </si>
+  <si>
+    <t>0.024*"export" + 0.022*"company" + 0.018*"investment" + 0.017*"asset" + 0.016*"import" + 0.014*"fund" + 0.012*"insurance" + 0.011*"must" + 0.010*"date" + 0.010*"good"</t>
   </si>
 </sst>
 </file>
